--- a/comp_results/Attacks.xlsx
+++ b/comp_results/Attacks.xlsx
@@ -5,10 +5,11 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="S.FGSM" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <t xml:space="preserve">Net</t>
   </si>
@@ -41,6 +42,12 @@
   </si>
   <si>
     <t xml:space="preserve">IT PGD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
   </si>
 </sst>
 </file>
@@ -161,8 +168,8 @@
   </sheetPr>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K18" activeCellId="0" sqref="K18"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E23" activeCellId="0" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -563,4 +570,427 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:Q55"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I1" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L1" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M1" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N1" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P1" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H21" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I21" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J21" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K21" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L21" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M21" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N21" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P21" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q21" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G39" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H39" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="I39" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="J39" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="K39" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="L39" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="M39" s="0" t="n">
+        <v>12</v>
+      </c>
+      <c r="N39" s="0" t="n">
+        <v>13</v>
+      </c>
+      <c r="O39" s="0" t="n">
+        <v>14</v>
+      </c>
+      <c r="P39" s="0" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q39" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="0" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="0" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="0" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="0" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="0" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="0" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="0" t="n">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>